--- a/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,13 +1167,5872 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>114.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>133.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2803</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7576</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9679</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8952</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6351</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4368</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2386</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2383</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1739</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0930</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0377</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9297</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8894</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8707</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8488</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8032</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8012</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7769</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7474</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6445</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6305</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4016</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3955</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>153</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>11.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6979,7 +6980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6990,17 +6991,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7010,14 +7031,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>153</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96.69</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7026,13 +7069,6724 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6777</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3440</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1672</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9563</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8239</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8131</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5993</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2717</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1932</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0923</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0568</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0368</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0178</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9979</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8768</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8721</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8306</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8062</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8003</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7968</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7658</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6869</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5995</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4983</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3607</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>41.68</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>42.57</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>42.57</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>176</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>153</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>11.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13717,7 +13718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13728,17 +13729,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13748,14 +13769,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>176</v>
-      </c>
-      <c r="D2" t="n">
-        <v>104.26</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -13764,14 +13807,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>153</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96.69</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -13780,13 +13845,5111 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2938</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6894</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3493</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2523</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1533</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0642</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0255</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9928</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9068</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8514</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8079</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7960</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4793</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001733</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰达宏利量化增强股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>134</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>176</v>
+      </c>
+      <c r="D3" t="n">
+        <v>104.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>153</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>11.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>72.42</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D3" t="n">
-        <v>104.26</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D4" t="n">
-        <v>96.69</v>
+        <v>104.26</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>153</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.02</v>
       </c>
     </row>
@@ -549,6 +566,2456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0372</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7394</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015752</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5694,7 +8161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12431,7 +14898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18294,7 +20761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000792-盐湖股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>29.52</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>72.42</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D4" t="n">
-        <v>104.26</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D5" t="n">
-        <v>96.69</v>
+        <v>104.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>153</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.02</v>
       </c>
     </row>
@@ -566,6 +583,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8865</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8532</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012252</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信宏盈18个月持有混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013527</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013528</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3015,7 +5176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8161,7 +10322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14898,7 +17059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20761,7 +22922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
